--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S16/S16_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S16/S16_dampingfactor.xlsx
@@ -14,174 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015719247377006244</t>
-  </si>
-  <si>
-    <t>0.02406926042048135</t>
-  </si>
-  <si>
-    <t>0.0368621674642927</t>
-  </si>
-  <si>
-    <t>0.060270060714180285</t>
-  </si>
-  <si>
-    <t>0.09228535165375397</t>
-  </si>
-  <si>
-    <t>0.14598649051030116</t>
-  </si>
-  <si>
-    <t>0.22719063061908276</t>
-  </si>
-  <si>
-    <t>0.3535537598171149</t>
-  </si>
-  <si>
-    <t>0.5591888199094364</t>
-  </si>
-  <si>
-    <t>0.8702081803201839</t>
-  </si>
-  <si>
-    <t>1.5377934282043073</t>
-  </si>
-  <si>
-    <t>2.2118394605368685</t>
-  </si>
-  <si>
-    <t>3.1709102459090897</t>
-  </si>
-  <si>
-    <t>4.5461798726116</t>
-  </si>
-  <si>
-    <t>6.411640531058908</t>
-  </si>
-  <si>
-    <t>9.343607652554216</t>
-  </si>
-  <si>
-    <t>13.394457853988522</t>
-  </si>
-  <si>
-    <t>19.199772569453124</t>
-  </si>
-  <si>
-    <t>27.521429549410797</t>
-  </si>
-  <si>
-    <t>39.45043838176014</t>
-  </si>
-  <si>
-    <t>56.54949333115512</t>
-  </si>
-  <si>
-    <t>81.05390088230344</t>
-  </si>
-  <si>
-    <t>116.17990164887665</t>
-  </si>
-  <si>
-    <t>166.5252780874407</t>
-  </si>
-  <si>
-    <t>229.11951841809568</t>
-  </si>
-  <si>
-    <t>342.1215837898378</t>
-  </si>
-  <si>
-    <t>474.56914219618074</t>
-  </si>
-  <si>
-    <t>14.38931230984568</t>
-  </si>
-  <si>
-    <t>11.571992324248802</t>
-  </si>
-  <si>
-    <t>8.88901684933364</t>
-  </si>
-  <si>
-    <t>6.828091337579298</t>
-  </si>
-  <si>
-    <t>5.49078218470237</t>
-  </si>
-  <si>
-    <t>4.5393014177657935</t>
-  </si>
-  <si>
-    <t>3.7556418526342688</t>
-  </si>
-  <si>
-    <t>3.128129213218542</t>
-  </si>
-  <si>
-    <t>2.6928907177800006</t>
-  </si>
-  <si>
-    <t>2.2433749101661116</t>
-  </si>
-  <si>
-    <t>2.0492699985659355</t>
-  </si>
-  <si>
-    <t>1.8242086059965903</t>
-  </si>
-  <si>
-    <t>1.628249750664824</t>
-  </si>
-  <si>
-    <t>1.4288197844698736</t>
-  </si>
-  <si>
-    <t>1.2801354928373079</t>
-  </si>
-  <si>
-    <t>1.1339786977459598</t>
-  </si>
-  <si>
-    <t>1.0227730091282206</t>
-  </si>
-  <si>
-    <t>0.9419097776636686</t>
-  </si>
-  <si>
-    <t>0.865632958151876</t>
-  </si>
-  <si>
-    <t>0.7930487939617077</t>
-  </si>
-  <si>
-    <t>0.7280674293923562</t>
-  </si>
-  <si>
-    <t>0.6796539488653452</t>
-  </si>
-  <si>
-    <t>0.6305033243533216</t>
-  </si>
-  <si>
-    <t>0.5873514616287582</t>
-  </si>
-  <si>
-    <t>0.5516636933220637</t>
-  </si>
-  <si>
-    <t>0.5091744650495715</t>
-  </si>
-  <si>
-    <t>0.48157930400262294</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -554,219 +392,219 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
+      <c r="A2">
+        <v>0.01571924737700624</v>
+      </c>
+      <c r="B2">
+        <v>14.38931230984568</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+      <c r="A3">
+        <v>0.02406926042048135</v>
+      </c>
+      <c r="B3">
+        <v>11.5719923242488</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
+      <c r="A4">
+        <v>0.0368621674642927</v>
+      </c>
+      <c r="B4">
+        <v>8.88901684933364</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
+      <c r="A5">
+        <v>0.06027006071418028</v>
+      </c>
+      <c r="B5">
+        <v>6.828091337579298</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+      <c r="A6">
+        <v>0.09228535165375397</v>
+      </c>
+      <c r="B6">
+        <v>5.49078218470237</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
+      <c r="A7">
+        <v>0.1459864905103012</v>
+      </c>
+      <c r="B7">
+        <v>4.539301417765794</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
+      <c r="A8">
+        <v>0.2271906306190828</v>
+      </c>
+      <c r="B8">
+        <v>3.755641852634269</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+      <c r="A9">
+        <v>0.3535537598171149</v>
+      </c>
+      <c r="B9">
+        <v>3.128129213218542</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
+      <c r="A10">
+        <v>0.5591888199094364</v>
+      </c>
+      <c r="B10">
+        <v>2.692890717780001</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+      <c r="A11">
+        <v>0.8702081803201839</v>
+      </c>
+      <c r="B11">
+        <v>2.243374910166112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
+      <c r="A12">
+        <v>1.537793428204307</v>
+      </c>
+      <c r="B12">
+        <v>2.049269998565936</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
+      <c r="A13">
+        <v>2.211839460536869</v>
+      </c>
+      <c r="B13">
+        <v>1.82420860599659</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
+      <c r="A14">
+        <v>3.17091024590909</v>
+      </c>
+      <c r="B14">
+        <v>1.628249750664824</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="A15">
+        <v>4.5461798726116</v>
+      </c>
+      <c r="B15">
+        <v>1.428819784469874</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
+      <c r="A16">
+        <v>6.411640531058908</v>
+      </c>
+      <c r="B16">
+        <v>1.280135492837308</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+      <c r="A17">
+        <v>9.343607652554216</v>
+      </c>
+      <c r="B17">
+        <v>1.13397869774596</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
+      <c r="A18">
+        <v>13.39445785398852</v>
+      </c>
+      <c r="B18">
+        <v>1.022773009128221</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+      <c r="A19">
+        <v>19.19977256945312</v>
+      </c>
+      <c r="B19">
+        <v>0.9419097776636686</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
+      <c r="A20">
+        <v>27.5214295494108</v>
+      </c>
+      <c r="B20">
+        <v>0.865632958151876</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
+      <c r="A21">
+        <v>39.45043838176014</v>
+      </c>
+      <c r="B21">
+        <v>0.7930487939617077</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
+      <c r="A22">
+        <v>56.54949333115512</v>
+      </c>
+      <c r="B22">
+        <v>0.7280674293923562</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
+      <c r="A23">
+        <v>81.05390088230344</v>
+      </c>
+      <c r="B23">
+        <v>0.6796539488653452</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
+      <c r="A24">
+        <v>116.1799016488767</v>
+      </c>
+      <c r="B24">
+        <v>0.6305033243533216</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
+      <c r="A25">
+        <v>166.5252780874407</v>
+      </c>
+      <c r="B25">
+        <v>0.5873514616287582</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
+      <c r="A26">
+        <v>229.1195184180957</v>
+      </c>
+      <c r="B26">
+        <v>0.5516636933220637</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
+      <c r="A27">
+        <v>342.1215837898378</v>
+      </c>
+      <c r="B27">
+        <v>0.5091744650495715</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
+      <c r="A28">
+        <v>474.5691421961807</v>
+      </c>
+      <c r="B28">
+        <v>0.4815793040026229</v>
       </c>
     </row>
   </sheetData>
